--- a/【チーム名】DB設計.xlsx
+++ b/【チーム名】DB設計.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\徳元　杏奈\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wiz\Documents\22310046-tokumotoanna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606EFD41-C8B2-484F-A3CD-B1B00763C928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1981132-8E16-42DC-AEE5-B056AB7E7498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7A78756B-6636-4BC2-B161-E00E0CF4E454}"/>
+    <workbookView xWindow="7730" yWindow="1690" windowWidth="15790" windowHeight="12370" xr2:uid="{7A78756B-6636-4BC2-B161-E00E0CF4E454}"/>
   </bookViews>
   <sheets>
     <sheet name="DB設計テンプレ" sheetId="3" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="288">
   <si>
     <t>テーブル名</t>
     <rPh sb="4" eb="5">
@@ -1254,34 +1254,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>student_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>上限文字数</t>
-  </si>
-  <si>
-    <t>学生番号</t>
-    <rPh sb="0" eb="2">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>学生の連番番号</t>
-    <rPh sb="0" eb="2">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>レンバン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>1,2,3</t>
@@ -1295,10 +1268,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>NULL</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1313,10 +1282,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>type_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>タイプ名</t>
     <rPh sb="3" eb="4">
       <t>メイ</t>
@@ -1394,6 +1359,22 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>TIME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SuiminTable</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>type_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>suimin_time</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1403,10 +1384,6 @@
   </si>
   <si>
     <t>okiru_time</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TIME</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2092,10 +2069,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F96BB4-42F2-4B8D-88E3-7FDC140FB6D9}">
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2157,7 +2134,9 @@
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
@@ -2222,7 +2201,7 @@
         <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>17</v>
@@ -2266,18 +2245,20 @@
         <v>168</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>270</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G5" s="8"/>
+        <v>272</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G5" s="8">
+        <v>20</v>
+      </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8">
         <v>-1</v>
@@ -2285,7 +2266,7 @@
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="O5" s="8" t="s">
         <v>27</v>
@@ -2310,13 +2291,13 @@
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>273</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>129</v>
@@ -2326,7 +2307,7 @@
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="8" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
@@ -2354,23 +2335,21 @@
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>278</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="G7" s="8">
-        <v>20</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -2401,13 +2380,13 @@
         <v>286</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
@@ -2441,13 +2420,13 @@
         <v>287</v>
       </c>
       <c r="D9" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="F9" s="8" t="s">
         <v>281</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>289</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -2477,18 +2456,10 @@
     <row r="10" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
-      <c r="C10" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>289</v>
-      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -2625,6 +2596,41 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4812,7 +4818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA2B066C-0698-4AA4-B8DD-DA5B5059AADE}">
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -5509,7 +5515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70CBA093-749C-4ECD-8871-28799DA9E84E}">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView topLeftCell="D9" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
@@ -8829,7 +8835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC90D39C-D10E-4B3F-9ED8-3759F8E6A0D7}">
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -9577,18 +9583,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9748,14 +9754,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCFDE22E-CF39-41C3-A7A5-9E71FC23AAF9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1C89C79-E5CA-40C7-A0FE-46F45731808E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -9767,6 +9765,14 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCFDE22E-CF39-41C3-A7A5-9E71FC23AAF9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/【チーム名】DB設計.xlsx
+++ b/【チーム名】DB設計.xlsx
@@ -1,31 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wiz\Documents\22310046-tokumotoanna\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\徳元　杏奈\Documents\システム開発Ⅰ\22310046-tokumotoanna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1981132-8E16-42DC-AEE5-B056AB7E7498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB387633-4B7E-4859-892B-0E74F07E1120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7730" yWindow="1690" windowWidth="15790" windowHeight="12370" xr2:uid="{7A78756B-6636-4BC2-B161-E00E0CF4E454}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{7A78756B-6636-4BC2-B161-E00E0CF4E454}"/>
   </bookViews>
   <sheets>
-    <sheet name="DB設計テンプレ" sheetId="3" r:id="rId1"/>
-    <sheet name="生徒メンバー" sheetId="7" r:id="rId2"/>
-    <sheet name="教師メンバー" sheetId="5" r:id="rId3"/>
-    <sheet name="アカウント" sheetId="19" r:id="rId4"/>
-    <sheet name="決済(とりあえず放置)" sheetId="10" r:id="rId5"/>
-    <sheet name="作物" sheetId="9" r:id="rId6"/>
-    <sheet name="栽培作物" sheetId="17" r:id="rId7"/>
-    <sheet name="地域" sheetId="12" r:id="rId8"/>
-    <sheet name="授業プラン" sheetId="6" r:id="rId9"/>
-    <sheet name="口座情報" sheetId="11" r:id="rId10"/>
-    <sheet name="問い合わせ" sheetId="13" r:id="rId11"/>
-    <sheet name="問い合わせカテゴリー" sheetId="14" r:id="rId12"/>
-    <sheet name="FAQ" sheetId="15" r:id="rId13"/>
+    <sheet name="DB設計テンプレ (2)" sheetId="20" r:id="rId1"/>
+    <sheet name="データ" sheetId="21" r:id="rId2"/>
+    <sheet name="DB設計テンプレ" sheetId="3" r:id="rId3"/>
+    <sheet name="生徒メンバー" sheetId="7" r:id="rId4"/>
+    <sheet name="教師メンバー" sheetId="5" r:id="rId5"/>
+    <sheet name="アカウント" sheetId="19" r:id="rId6"/>
+    <sheet name="決済(とりあえず放置)" sheetId="10" r:id="rId7"/>
+    <sheet name="作物" sheetId="9" r:id="rId8"/>
+    <sheet name="栽培作物" sheetId="17" r:id="rId9"/>
+    <sheet name="地域" sheetId="12" r:id="rId10"/>
+    <sheet name="授業プラン" sheetId="6" r:id="rId11"/>
+    <sheet name="口座情報" sheetId="11" r:id="rId12"/>
+    <sheet name="問い合わせ" sheetId="13" r:id="rId13"/>
+    <sheet name="問い合わせカテゴリー" sheetId="14" r:id="rId14"/>
+    <sheet name="FAQ" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="316">
   <si>
     <t>テーブル名</t>
     <rPh sb="4" eb="5">
@@ -1384,6 +1386,183 @@
   </si>
   <si>
     <t>okiru_time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>q_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>q_text</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問番号</t>
+    <rPh sb="0" eb="4">
+      <t>シツモンバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問文</t>
+    <rPh sb="0" eb="3">
+      <t>シツモンブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>q_selecttexts</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>q_next</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択肢の文章</t>
+    <rPh sb="0" eb="3">
+      <t>センタクシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ブンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択肢を選んだ次の処理</t>
+    <rPh sb="0" eb="3">
+      <t>センタクシ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Text</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>serial</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必要:必要ない</t>
+    <rPh sb="0" eb="2">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>睡眠時間は7時間以上必要？</t>
+    <rPh sb="0" eb="4">
+      <t>スイミンジカン</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>ジカンイジョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2:イルカ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>QSuiminTable</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>q_id</t>
+  </si>
+  <si>
+    <t>q_text</t>
+  </si>
+  <si>
+    <t>q_selecttexts</t>
+  </si>
+  <si>
+    <t>q_next</t>
+  </si>
+  <si>
+    <t>睡眠時間は７時間以上必要？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>朝型? 夜型?</t>
+    <rPh sb="0" eb="2">
+      <t>アサガタ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヨル</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ガタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>朝型:夜型</t>
+    <rPh sb="0" eb="2">
+      <t>アサガタ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヨルガタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3:オオカミ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クマ:ライオン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お昼寝したい派?</t>
+    <rPh sb="1" eb="3">
+      <t>ヒルネ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>したい:いらない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問の番号</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yes no</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択による</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1659,7 +1838,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1753,6 +1932,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2068,11 +2250,581 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F96BB4-42F2-4B8D-88E3-7FDC140FB6D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{138D8356-FBCF-43F8-A2F4-27EC563FF795}">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="C1" zoomScale="73" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="24.4140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.58203125" customWidth="1"/>
+    <col min="4" max="4" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.58203125" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.1640625" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.08203125" customWidth="1"/>
+    <col min="12" max="12" width="26" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.58203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.4140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.4140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27.58203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.58203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="3">
+        <v>44323</v>
+      </c>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+    </row>
+    <row r="4" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="G5" s="8">
+        <v>20</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8">
+        <v>-1</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="G6" s="8">
+        <v>20</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="T6" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="T7" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="S8" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="T8" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="O9" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="S9" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="T9" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="O10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="R10" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="S10" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="T10" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="O11" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="R11" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="O12" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF98D2B4-FB8C-4242-AD28-0545D583FB66}">
+  <dimension ref="A1:T17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2081,7 +2833,7 @@
     <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.58203125" customWidth="1"/>
     <col min="4" max="4" width="19.1640625" customWidth="1"/>
-    <col min="5" max="5" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.08203125" customWidth="1"/>
     <col min="6" max="6" width="17.58203125" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.1640625" customWidth="1"/>
@@ -2106,10 +2858,10 @@
       <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="33"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -2134,12 +2886,16 @@
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2"/>
+      <c r="A2" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" s="35"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2201,7 +2957,7 @@
         <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>268</v>
+        <v>16</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>17</v>
@@ -2239,35 +2995,27 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>168</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="B5" s="8"/>
       <c r="C5" s="8" t="s">
-        <v>283</v>
+        <v>177</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="G5" s="8">
-        <v>20</v>
-      </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8">
-        <v>-1</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
-      <c r="L5" s="8" t="s">
-        <v>269</v>
-      </c>
+      <c r="L5" s="8"/>
       <c r="O5" s="8" t="s">
         <v>27</v>
       </c>
@@ -2291,24 +3039,20 @@
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8" t="s">
-        <v>284</v>
+        <v>179</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>274</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="E6" s="8"/>
       <c r="F6" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="G6" s="8">
-        <v>20</v>
+        <v>36</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>181</v>
       </c>
       <c r="H6" s="8"/>
-      <c r="I6" s="8" t="s">
-        <v>271</v>
-      </c>
+      <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
@@ -2334,23 +3078,13 @@
     <row r="7" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>281</v>
-      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="8" t="s">
-        <v>271</v>
-      </c>
+      <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
@@ -2376,18 +3110,10 @@
     <row r="8" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>281</v>
-      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -2416,18 +3142,10 @@
     <row r="9" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
-      <c r="C9" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>281</v>
-      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -2597,49 +3315,780 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-    </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-    </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E17" t="s">
+        <v>182</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>183</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="F17" r:id="rId1" xr:uid="{4166CB06-8295-4215-B3E7-20C93CDBD962}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC90D39C-D10E-4B3F-9ED8-3759F8E6A0D7}">
+  <dimension ref="A1:T26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="24.4140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.58203125" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" customWidth="1"/>
+    <col min="5" max="5" width="19.4140625" customWidth="1"/>
+    <col min="6" max="6" width="17.58203125" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.1640625" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="26.9140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.08203125" customWidth="1"/>
+    <col min="12" max="12" width="21.08203125" customWidth="1"/>
+    <col min="13" max="13" width="12.58203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.4140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.4140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27.58203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.58203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="3">
+        <v>44323</v>
+      </c>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+    </row>
+    <row r="4" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="O5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G6" s="27"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="O6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="T6" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="8">
+        <v>32</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="O7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="T7" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="8">
+        <v>500</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="O8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="S8" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="T8" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="O9" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="S9" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="T9" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="O10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="R10" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="S10" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="T10" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="O11" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="R11" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="8"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="O12" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+    </row>
+    <row r="13" spans="1:20" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="8"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="8"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="G15" s="8">
+        <v>255</v>
+      </c>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="8"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="8"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="8"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E18" s="15"/>
+      <c r="F18" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="8"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="8"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="8"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="8"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11D85C1-2369-4E8D-BEF7-01D302817E5E}">
   <dimension ref="A1:T22"/>
   <sheetViews>
@@ -3271,7 +4720,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50B6DA5E-27C5-43C1-88A5-D8E4A64E48DA}">
   <dimension ref="A1:T15"/>
   <sheetViews>
@@ -3796,7 +5245,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A22FC47-3CF8-4D8A-9D08-B4EE396465B7}">
   <dimension ref="A1:T15"/>
   <sheetViews>
@@ -4303,7 +5752,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80EEE63F-533E-472F-9A43-2C9F00221C85}">
   <dimension ref="A1:T15"/>
   <sheetViews>
@@ -4815,6 +6264,655 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05708AC4-DF79-46B1-8ECA-5A8A0B6957C3}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" customWidth="1"/>
+    <col min="3" max="4" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C3" t="s">
+        <v>308</v>
+      </c>
+      <c r="D3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C4" t="s">
+        <v>312</v>
+      </c>
+      <c r="D4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F96BB4-42F2-4B8D-88E3-7FDC140FB6D9}">
+  <dimension ref="A1:T22"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="24.4140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.58203125" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" customWidth="1"/>
+    <col min="5" max="5" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.58203125" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.1640625" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.08203125" customWidth="1"/>
+    <col min="12" max="12" width="21.08203125" customWidth="1"/>
+    <col min="13" max="13" width="12.58203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.4140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.4140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27.58203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.58203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="3">
+        <v>44323</v>
+      </c>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+    </row>
+    <row r="4" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G5" s="8">
+        <v>20</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8">
+        <v>-1</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G6" s="8">
+        <v>20</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="O6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="T6" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="O7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="T7" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="O8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="S8" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="T8" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="O9" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="S9" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="T9" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="O10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="R10" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="S10" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="T10" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="O11" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="R11" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="O12" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA2B066C-0698-4AA4-B8DD-DA5B5059AADE}">
   <dimension ref="A1:T21"/>
   <sheetViews>
@@ -5511,7 +7609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70CBA093-749C-4ECD-8871-28799DA9E84E}">
   <dimension ref="A1:T22"/>
   <sheetViews>
@@ -6244,7 +8342,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8FE8449-F1C1-4082-9919-E99AE2468262}">
   <dimension ref="A1:T19"/>
   <sheetViews>
@@ -6765,7 +8863,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1849E0D5-CD27-401F-8775-6F705D65C57F}">
   <dimension ref="A1:T15"/>
   <sheetViews>
@@ -7296,7 +9394,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30E84476-CA85-4D2F-8D72-3C50CEB1EC86}">
   <dimension ref="A1:T15"/>
   <sheetViews>
@@ -7802,7 +9900,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE3EB8AD-D691-40BB-89AC-D56DB525A5F1}">
   <dimension ref="A1:T15"/>
   <sheetViews>
@@ -8310,1275 +10408,6 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF98D2B4-FB8C-4242-AD28-0545D583FB66}">
-  <dimension ref="A1:T17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="24.4140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.58203125" customWidth="1"/>
-    <col min="4" max="4" width="19.1640625" customWidth="1"/>
-    <col min="5" max="5" width="14.08203125" customWidth="1"/>
-    <col min="6" max="6" width="17.58203125" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.08203125" customWidth="1"/>
-    <col min="12" max="12" width="21.08203125" customWidth="1"/>
-    <col min="13" max="13" width="12.58203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="34.4140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.4140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="27.58203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="27.58203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="3">
-        <v>44323</v>
-      </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-    </row>
-    <row r="4" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="S4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="T4" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="O5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="R5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="S5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="T5" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="O6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q6" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="R6" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="S6" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="T6" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="O7" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q7" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="R7" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="S7" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="T7" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="O8" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q8" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="R8" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="S8" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="T8" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="O9" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="P9" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q9" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="R9" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="S9" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="T9" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="O10" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="P10" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q10" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="R10" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="S10" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="T10" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="O11" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="P11" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q11" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="R11" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="O12" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="P12" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-    </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E17" t="s">
-        <v>182</v>
-      </c>
-      <c r="F17" s="28" t="s">
-        <v>183</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="F17" r:id="rId1" xr:uid="{4166CB06-8295-4215-B3E7-20C93CDBD962}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC90D39C-D10E-4B3F-9ED8-3759F8E6A0D7}">
-  <dimension ref="A1:T26"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="24.4140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.58203125" customWidth="1"/>
-    <col min="4" max="4" width="19.1640625" customWidth="1"/>
-    <col min="5" max="5" width="19.4140625" customWidth="1"/>
-    <col min="6" max="6" width="17.58203125" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="26.9140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.08203125" customWidth="1"/>
-    <col min="12" max="12" width="21.08203125" customWidth="1"/>
-    <col min="13" max="13" width="12.58203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="34.4140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.4140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="27.58203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="27.58203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="3">
-        <v>44323</v>
-      </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-    </row>
-    <row r="4" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="S4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="T4" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="O5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="R5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="S5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="T5" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="O6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q6" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="R6" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="S6" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="T6" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="8">
-        <v>32</v>
-      </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="O7" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q7" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="R7" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="S7" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="T7" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="8">
-        <v>500</v>
-      </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="O8" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q8" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="R8" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="S8" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="T8" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="O9" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="P9" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q9" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="R9" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="S9" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="T9" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="O10" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="P10" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q10" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="R10" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="S10" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="T10" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="O11" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="P11" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q11" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="R11" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="8"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="O12" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="P12" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-    </row>
-    <row r="13" spans="1:20" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="8"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>205</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="8"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="25" t="s">
-        <v>207</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="25" t="s">
-        <v>210</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>211</v>
-      </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="G15" s="8">
-        <v>255</v>
-      </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="8"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>213</v>
-      </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="30" t="s">
-        <v>214</v>
-      </c>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="8"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>216</v>
-      </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="8"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="8"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="8"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="8"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="8"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
